--- a/Spot_Grid_Price_Results.xlsx
+++ b/Spot_Grid_Price_Results.xlsx
@@ -19,34 +19,34 @@
     <t>Hour</t>
   </si>
   <si>
-    <t>Price</t>
+    <t>Price [NOK/kWh]</t>
   </si>
   <si>
-    <t>Demand</t>
+    <t>Demand [kW]</t>
   </si>
   <si>
-    <t>EV Demand</t>
+    <t>EV Demand [kW]</t>
   </si>
   <si>
-    <t>Battery SOC</t>
+    <t>Battery SOC [kWh]</t>
   </si>
   <si>
-    <t>Charge Power</t>
+    <t>Charge Power [kW]</t>
   </si>
   <si>
-    <t>Discharge Power</t>
+    <t>Discharge Power [kW]</t>
   </si>
   <si>
-    <t>EV SOC</t>
+    <t>EV SOC [kWh]</t>
   </si>
   <si>
-    <t>EV Charge Power</t>
+    <t>EV Charge Power [kW]</t>
   </si>
   <si>
-    <t>EV Discharge Power</t>
+    <t>EV Discharge Power [kW]</t>
   </si>
   <si>
-    <t>Power Import</t>
+    <t>Power Import [kW]</t>
   </si>
   <si>
     <t>ENS</t>

--- a/Spot_Grid_Price_Results.xlsx
+++ b/Spot_Grid_Price_Results.xlsx
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>13.99999999999999</v>
+        <v>14</v>
       </c>
       <c r="H17">
         <v>82.23416666666665</v>
@@ -1339,7 +1339,7 @@
         <v>7.199999999999999</v>
       </c>
       <c r="E25">
-        <v>2.000000000000002</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>2.051282051282053</v>
@@ -1804,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>97.44999999999999</v>
+        <v>97.45</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -1842,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>94.49999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>16</v>
       </c>
       <c r="H40">
-        <v>87.54999999999998</v>
+        <v>87.55</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -2032,7 +2032,7 @@
         <v>16</v>
       </c>
       <c r="H43">
-        <v>64.89999999999999</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>5.03125</v>
       </c>
       <c r="H44">
-        <v>56.99999999999999</v>
+        <v>57</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -3020,7 +3020,7 @@
         <v>16</v>
       </c>
       <c r="H69">
-        <v>71.69999999999999</v>
+        <v>71.7</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -3970,7 +3970,7 @@
         <v>14</v>
       </c>
       <c r="H94">
-        <v>57.35000000000001</v>
+        <v>57.35</v>
       </c>
       <c r="I94">
         <v>0</v>
@@ -4075,7 +4075,7 @@
         <v>7.199999999999999</v>
       </c>
       <c r="E97">
-        <v>2.000000000000002</v>
+        <v>2</v>
       </c>
       <c r="F97">
         <v>2.051282051282053</v>
@@ -4113,7 +4113,7 @@
         <v>5.774999999999999</v>
       </c>
       <c r="E98">
-        <v>2.000000000000002</v>
+        <v>2</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -5025,7 +5025,7 @@
         <v>5.449999999999999</v>
       </c>
       <c r="E122">
-        <v>2.000000000000002</v>
+        <v>2</v>
       </c>
       <c r="F122">
         <v>2.051282051282053</v>
@@ -5487,7 +5487,7 @@
         <v>0</v>
       </c>
       <c r="G134">
-        <v>13.99999999999999</v>
+        <v>14</v>
       </c>
       <c r="H134">
         <v>41.825</v>
@@ -5899,7 +5899,7 @@
         <v>6.1</v>
       </c>
       <c r="E145">
-        <v>2.000000000000002</v>
+        <v>2</v>
       </c>
       <c r="F145">
         <v>2.051282051282053</v>
@@ -5937,7 +5937,7 @@
         <v>5.449999999999999</v>
       </c>
       <c r="E146">
-        <v>2.000000000000002</v>
+        <v>2</v>
       </c>
       <c r="F146">
         <v>0</v>
@@ -6209,7 +6209,7 @@
         <v>0</v>
       </c>
       <c r="G153">
-        <v>13.99999999999999</v>
+        <v>14</v>
       </c>
       <c r="H153">
         <v>0</v>
@@ -8223,7 +8223,7 @@
         <v>0</v>
       </c>
       <c r="G206">
-        <v>13.99999999999999</v>
+        <v>14</v>
       </c>
       <c r="H206">
         <v>105.1</v>
@@ -8597,7 +8597,7 @@
         <v>8.149999999999999</v>
       </c>
       <c r="E216">
-        <v>2.000000000000002</v>
+        <v>2</v>
       </c>
       <c r="F216">
         <v>2.051282051282053</v>
@@ -9509,7 +9509,7 @@
         <v>8.149999999999999</v>
       </c>
       <c r="E240">
-        <v>2.000000000000002</v>
+        <v>2</v>
       </c>
       <c r="F240">
         <v>2.051282051282053</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="G252">
-        <v>13.99999999999999</v>
+        <v>14</v>
       </c>
       <c r="H252">
         <v>99.57499999999999</v>
@@ -10012,7 +10012,7 @@
         <v>16</v>
       </c>
       <c r="H253">
-        <v>97.19999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="I253">
         <v>0</v>
@@ -10050,7 +10050,7 @@
         <v>16</v>
       </c>
       <c r="H254">
-        <v>94.24999999999999</v>
+        <v>94.25</v>
       </c>
       <c r="I254">
         <v>0</v>
@@ -10126,7 +10126,7 @@
         <v>16</v>
       </c>
       <c r="H256">
-        <v>87.29999999999998</v>
+        <v>87.3</v>
       </c>
       <c r="I256">
         <v>0</v>
@@ -10240,7 +10240,7 @@
         <v>0</v>
       </c>
       <c r="H259">
-        <v>64.64999999999999</v>
+        <v>64.65000000000001</v>
       </c>
       <c r="I259">
         <v>0</v>
@@ -10278,7 +10278,7 @@
         <v>0</v>
       </c>
       <c r="H260">
-        <v>56.74999999999999</v>
+        <v>56.75</v>
       </c>
       <c r="I260">
         <v>0</v>
@@ -10316,7 +10316,7 @@
         <v>0</v>
       </c>
       <c r="H261">
-        <v>56.74999999999999</v>
+        <v>56.75</v>
       </c>
       <c r="I261">
         <v>0</v>
@@ -10354,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="H262">
-        <v>56.74999999999999</v>
+        <v>56.75</v>
       </c>
       <c r="I262">
         <v>0</v>
@@ -10392,7 +10392,7 @@
         <v>0</v>
       </c>
       <c r="H263">
-        <v>56.74999999999999</v>
+        <v>56.75</v>
       </c>
       <c r="I263">
         <v>0</v>
@@ -11947,7 +11947,7 @@
         <v>0</v>
       </c>
       <c r="G304">
-        <v>13.99999999999999</v>
+        <v>14</v>
       </c>
       <c r="H304">
         <v>105.1</v>
@@ -12187,7 +12187,7 @@
         <v>0</v>
       </c>
       <c r="K310">
-        <v>51.05833333333335</v>
+        <v>51.05833333333333</v>
       </c>
       <c r="L310">
         <v>0</v>
@@ -13359,7 +13359,7 @@
         <v>105.1</v>
       </c>
       <c r="I341">
-        <v>18.14999999999999</v>
+        <v>18.15</v>
       </c>
       <c r="J341">
         <v>0</v>
@@ -15057,7 +15057,7 @@
         <v>5.774999999999999</v>
       </c>
       <c r="E386">
-        <v>2.000000000000002</v>
+        <v>2</v>
       </c>
       <c r="F386">
         <v>2.051282051282053</v>
@@ -15709,7 +15709,7 @@
         <v>0</v>
       </c>
       <c r="G403">
-        <v>4.950000000000017</v>
+        <v>4.95</v>
       </c>
       <c r="H403">
         <v>0</v>
@@ -15931,7 +15931,7 @@
         <v>7.199999999999999</v>
       </c>
       <c r="E409">
-        <v>2.000000000000002</v>
+        <v>2</v>
       </c>
       <c r="F409">
         <v>2.051282051282053</v>
@@ -15969,7 +15969,7 @@
         <v>5.774999999999999</v>
       </c>
       <c r="E410">
-        <v>2.000000000000002</v>
+        <v>2</v>
       </c>
       <c r="F410">
         <v>0</v>
@@ -17232,7 +17232,7 @@
         <v>0</v>
       </c>
       <c r="H443">
-        <v>83.49999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="I443">
         <v>0</v>
@@ -17308,7 +17308,7 @@
         <v>0</v>
       </c>
       <c r="H445">
-        <v>79.09999999999998</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="I445">
         <v>0</v>
@@ -17346,7 +17346,7 @@
         <v>0</v>
       </c>
       <c r="H446">
-        <v>76.14999999999998</v>
+        <v>76.15000000000001</v>
       </c>
       <c r="I446">
         <v>0</v>
@@ -17422,7 +17422,7 @@
         <v>0</v>
       </c>
       <c r="H448">
-        <v>69.19999999999997</v>
+        <v>69.2</v>
       </c>
       <c r="I448">
         <v>0</v>
@@ -17457,7 +17457,7 @@
         <v>0</v>
       </c>
       <c r="G449">
-        <v>13.99999999999999</v>
+        <v>14</v>
       </c>
       <c r="H449">
         <v>64.02499999999998</v>
@@ -17498,7 +17498,7 @@
         <v>16</v>
       </c>
       <c r="H450">
-        <v>55.24999999999999</v>
+        <v>55.25</v>
       </c>
       <c r="I450">
         <v>0</v>
@@ -17536,7 +17536,7 @@
         <v>16</v>
       </c>
       <c r="H451">
-        <v>46.54999999999999</v>
+        <v>46.55</v>
       </c>
       <c r="I451">
         <v>0</v>
@@ -17574,7 +17574,7 @@
         <v>16</v>
       </c>
       <c r="H452">
-        <v>38.64999999999999</v>
+        <v>38.65</v>
       </c>
       <c r="I452">
         <v>0</v>
@@ -17755,7 +17755,7 @@
         <v>7.199999999999999</v>
       </c>
       <c r="E457">
-        <v>2.000000000000002</v>
+        <v>2</v>
       </c>
       <c r="F457">
         <v>2.051282051282053</v>
@@ -17793,7 +17793,7 @@
         <v>5.449999999999999</v>
       </c>
       <c r="E458">
-        <v>2.000000000000002</v>
+        <v>2</v>
       </c>
       <c r="F458">
         <v>0</v>
@@ -18074,10 +18074,10 @@
         <v>0</v>
       </c>
       <c r="J465">
-        <v>0.4999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="K465">
-        <v>35.40000000000001</v>
+        <v>35.4</v>
       </c>
       <c r="L465">
         <v>0</v>
@@ -18705,7 +18705,7 @@
         <v>5.449999999999999</v>
       </c>
       <c r="E482">
-        <v>2.000000000000002</v>
+        <v>2</v>
       </c>
       <c r="F482">
         <v>2.051282051282053</v>
@@ -19167,7 +19167,7 @@
         <v>0</v>
       </c>
       <c r="G494">
-        <v>13.99999999999999</v>
+        <v>14</v>
       </c>
       <c r="H494">
         <v>0</v>
@@ -19617,7 +19617,7 @@
         <v>5.774999999999999</v>
       </c>
       <c r="E506">
-        <v>2.000000000000002</v>
+        <v>2</v>
       </c>
       <c r="F506">
         <v>2.051282051282053</v>
@@ -20117,10 +20117,10 @@
         <v>0</v>
       </c>
       <c r="G519">
-        <v>13.99999999999999</v>
+        <v>14</v>
       </c>
       <c r="H519">
-        <v>80.94999999999999</v>
+        <v>80.95</v>
       </c>
       <c r="I519">
         <v>0</v>
@@ -21441,7 +21441,7 @@
         <v>5.774999999999999</v>
       </c>
       <c r="E554">
-        <v>2.000000000000002</v>
+        <v>2</v>
       </c>
       <c r="F554">
         <v>2.051282051282053</v>
@@ -21827,7 +21827,7 @@
         <v>0</v>
       </c>
       <c r="G564">
-        <v>13.99999999999999</v>
+        <v>14</v>
       </c>
       <c r="H564">
         <v>103.075</v>
@@ -21839,7 +21839,7 @@
         <v>2.025</v>
       </c>
       <c r="K564">
-        <v>19.43333333333335</v>
+        <v>19.43333333333333</v>
       </c>
       <c r="L564">
         <v>0</v>
@@ -22020,13 +22020,13 @@
         <v>0</v>
       </c>
       <c r="H569">
-        <v>99.70000000000002</v>
+        <v>99.7</v>
       </c>
       <c r="I569">
         <v>0</v>
       </c>
       <c r="J569">
-        <v>0.9999999999999716</v>
+        <v>1</v>
       </c>
       <c r="K569">
         <v>38.03875000000004</v>
@@ -23265,7 +23265,7 @@
         <v>5.774999999999999</v>
       </c>
       <c r="E602">
-        <v>2.000000000000002</v>
+        <v>2</v>
       </c>
       <c r="F602">
         <v>2.051282051282053</v>
@@ -23537,7 +23537,7 @@
         <v>0</v>
       </c>
       <c r="G609">
-        <v>13.99999999999999</v>
+        <v>14</v>
       </c>
       <c r="H609">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>5.449999999999999</v>
       </c>
       <c r="E626">
-        <v>2.000000000000002</v>
+        <v>2</v>
       </c>
       <c r="F626">
         <v>2.051282051282053</v>
@@ -24449,7 +24449,7 @@
         <v>0</v>
       </c>
       <c r="G633">
-        <v>13.99999999999999</v>
+        <v>14</v>
       </c>
       <c r="H633">
         <v>0</v>
@@ -25107,7 +25107,7 @@
         <v>0</v>
       </c>
       <c r="K650">
-        <v>68.30000000000001</v>
+        <v>68.3</v>
       </c>
       <c r="L650">
         <v>0</v>
@@ -25136,10 +25136,10 @@
         <v>0</v>
       </c>
       <c r="H651">
-        <v>41.90000000000001</v>
+        <v>41.9</v>
       </c>
       <c r="I651">
-        <v>17.70000000000001</v>
+        <v>17.7</v>
       </c>
       <c r="J651">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="H652">
-        <v>41.90000000000001</v>
+        <v>41.9</v>
       </c>
       <c r="I652">
         <v>0</v>
@@ -25212,7 +25212,7 @@
         <v>0</v>
       </c>
       <c r="H653">
-        <v>41.90000000000001</v>
+        <v>41.9</v>
       </c>
       <c r="I653">
         <v>0</v>
@@ -25250,7 +25250,7 @@
         <v>0</v>
       </c>
       <c r="H654">
-        <v>41.90000000000001</v>
+        <v>41.9</v>
       </c>
       <c r="I654">
         <v>0</v>
@@ -25288,7 +25288,7 @@
         <v>0</v>
       </c>
       <c r="H655">
-        <v>41.90000000000001</v>
+        <v>41.9</v>
       </c>
       <c r="I655">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="H656">
-        <v>41.15000000000001</v>
+        <v>41.15</v>
       </c>
       <c r="I656">
         <v>0</v>
@@ -25364,13 +25364,13 @@
         <v>16</v>
       </c>
       <c r="H657">
-        <v>40.65000000000001</v>
+        <v>40.65</v>
       </c>
       <c r="I657">
         <v>0</v>
       </c>
       <c r="J657">
-        <v>0.4999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="K657">
         <v>21.64666666666667</v>
@@ -25399,7 +25399,7 @@
         <v>0</v>
       </c>
       <c r="G658">
-        <v>13.99999999999999</v>
+        <v>14</v>
       </c>
       <c r="H658">
         <v>39.825</v>
@@ -26171,7 +26171,7 @@
         <v>0</v>
       </c>
       <c r="K678">
-        <v>58.72878205128206</v>
+        <v>58.72878205128205</v>
       </c>
       <c r="L678">
         <v>0</v>
@@ -26504,7 +26504,7 @@
         <v>0</v>
       </c>
       <c r="H687">
-        <v>91.79999999999998</v>
+        <v>91.8</v>
       </c>
       <c r="I687">
         <v>0</v>
@@ -26542,7 +26542,7 @@
         <v>0</v>
       </c>
       <c r="H688">
-        <v>91.79999999999998</v>
+        <v>91.8</v>
       </c>
       <c r="I688">
         <v>0</v>
@@ -26580,7 +26580,7 @@
         <v>0</v>
       </c>
       <c r="H689">
-        <v>91.79999999999998</v>
+        <v>91.8</v>
       </c>
       <c r="I689">
         <v>0</v>
@@ -26618,7 +26618,7 @@
         <v>0</v>
       </c>
       <c r="H690">
-        <v>91.79999999999998</v>
+        <v>91.8</v>
       </c>
       <c r="I690">
         <v>0</v>
@@ -26656,7 +26656,7 @@
         <v>0</v>
       </c>
       <c r="H691">
-        <v>83.09999999999998</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="I691">
         <v>0</v>
@@ -26694,7 +26694,7 @@
         <v>0</v>
       </c>
       <c r="H692">
-        <v>83.09999999999998</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="I692">
         <v>0</v>
@@ -26732,16 +26732,16 @@
         <v>0</v>
       </c>
       <c r="H693">
-        <v>79.85000000000001</v>
+        <v>79.84999999999999</v>
       </c>
       <c r="I693">
         <v>0</v>
       </c>
       <c r="J693">
-        <v>3.249999999999972</v>
+        <v>3.25</v>
       </c>
       <c r="K693">
-        <v>56.00833333333337</v>
+        <v>56.00833333333336</v>
       </c>
       <c r="L693">
         <v>0</v>
@@ -26770,7 +26770,7 @@
         <v>0</v>
       </c>
       <c r="H694">
-        <v>79.85000000000001</v>
+        <v>79.84999999999999</v>
       </c>
       <c r="I694">
         <v>0</v>
@@ -26808,7 +26808,7 @@
         <v>0</v>
       </c>
       <c r="H695">
-        <v>79.85000000000001</v>
+        <v>79.84999999999999</v>
       </c>
       <c r="I695">
         <v>0</v>
@@ -26846,7 +26846,7 @@
         <v>0</v>
       </c>
       <c r="H696">
-        <v>79.85000000000001</v>
+        <v>79.84999999999999</v>
       </c>
       <c r="I696">
         <v>0</v>
@@ -26875,7 +26875,7 @@
         <v>7.199999999999999</v>
       </c>
       <c r="E697">
-        <v>2.000000000000002</v>
+        <v>2</v>
       </c>
       <c r="F697">
         <v>2.051282051282053</v>
@@ -26884,7 +26884,7 @@
         <v>0</v>
       </c>
       <c r="H697">
-        <v>79.85000000000001</v>
+        <v>79.84999999999999</v>
       </c>
       <c r="I697">
         <v>0</v>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="H698">
-        <v>79.85000000000001</v>
+        <v>79.84999999999999</v>
       </c>
       <c r="I698">
         <v>0</v>
@@ -26960,7 +26960,7 @@
         <v>0</v>
       </c>
       <c r="H699">
-        <v>79.85000000000001</v>
+        <v>79.84999999999999</v>
       </c>
       <c r="I699">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="H700">
-        <v>79.85000000000001</v>
+        <v>79.84999999999999</v>
       </c>
       <c r="I700">
         <v>0</v>
@@ -27036,7 +27036,7 @@
         <v>0</v>
       </c>
       <c r="H701">
-        <v>79.85000000000001</v>
+        <v>79.84999999999999</v>
       </c>
       <c r="I701">
         <v>0</v>
@@ -27074,7 +27074,7 @@
         <v>0</v>
       </c>
       <c r="H702">
-        <v>79.85000000000001</v>
+        <v>79.84999999999999</v>
       </c>
       <c r="I702">
         <v>0</v>
@@ -27112,7 +27112,7 @@
         <v>0</v>
       </c>
       <c r="H703">
-        <v>79.85000000000001</v>
+        <v>79.84999999999999</v>
       </c>
       <c r="I703">
         <v>0</v>
@@ -27150,7 +27150,7 @@
         <v>0</v>
       </c>
       <c r="H704">
-        <v>79.60000000000001</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="I704">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="H707">
-        <v>76.35000000000001</v>
+        <v>76.34999999999999</v>
       </c>
       <c r="I707">
         <v>0</v>
@@ -27530,7 +27530,7 @@
         <v>0</v>
       </c>
       <c r="H714">
-        <v>48.09999999999999</v>
+        <v>48.1</v>
       </c>
       <c r="I714">
         <v>0</v>
